--- a/user-data/out-oof-and-repayments/out-oof-and-repayments.xlsx
+++ b/user-data/out-oof-and-repayments/out-oof-and-repayments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>Source: Development Initiatives based on OECD-DAC data</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -667,22 +664,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -698,11 +695,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/out-oof-and-repayments/out-oof-and-repayments.xlsx
+++ b/user-data/out-oof-and-repayments/out-oof-and-repayments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -294,7 +294,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -697,6 +700,11 @@
         <v>95</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/out-oof-and-repayments/out-oof-and-repayments.xlsx
+++ b/user-data/out-oof-and-repayments/out-oof-and-repayments.xlsx
@@ -264,7 +264,7 @@
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>UK</t>
   </si>
   <si>
     <t>US</t>
@@ -303,7 +303,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
